--- a/biology/Médecine/Hormone_de_libération_des_gonadotrophines_hypophysaires/Hormone_de_libération_des_gonadotrophines_hypophysaires.xlsx
+++ b/biology/Médecine/Hormone_de_libération_des_gonadotrophines_hypophysaires/Hormone_de_libération_des_gonadotrophines_hypophysaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hormone_de_lib%C3%A9ration_des_gonadotrophines_hypophysaires</t>
+          <t>Hormone_de_libération_des_gonadotrophines_hypophysaires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lulibérine, Gonadolibérine
 L'hormone de libération des gonadotrophines hypophysaires appelée aussi parfois gonadolibérine (et fréquemment abrégée en GnRH, sigle de l’anglais Gonadotropin Releasing Hormone), est une Neurohormone peptidique synthétisée par des neurones de l’hypothalamus (neurohormone) responsable de la synthèse et de la sécrétion de l'hormone lutéinisante (LH) et, à un degré moindre, de l'hormone folliculo-stimulante (FSH) par l’anté-hypophyse.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hormone_de_lib%C3%A9ration_des_gonadotrophines_hypophysaires</t>
+          <t>Hormone_de_libération_des_gonadotrophines_hypophysaires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est aussi parfois appelée lulibérine[2] et LHRH (de l’anglais Luteinizing Hormone Releasing Hormone).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est aussi parfois appelée lulibérine et LHRH (de l’anglais Luteinizing Hormone Releasing Hormone).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hormone_de_lib%C3%A9ration_des_gonadotrophines_hypophysaires</t>
+          <t>Hormone_de_libération_des_gonadotrophines_hypophysaires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Gène</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gène du précurseur de la GnRH est situé chez l'Humain sur le chromosome 8[3]. Il code un précurseur de 92 acides aminés.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gène du précurseur de la GnRH est situé chez l'Humain sur le chromosome 8. Il code un précurseur de 92 acides aminés.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hormone_de_lib%C3%A9ration_des_gonadotrophines_hypophysaires</t>
+          <t>Hormone_de_libération_des_gonadotrophines_hypophysaires</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La découverte de la GnRH a été faite en 1977 par Roger Guillemin et Andrew V. Schally, tous deux lauréats du Prix Nobel.
 Le précurseur du GnRH est clivé par protéolyse pour donner le GnRH, un décapeptide (autrement dit, un peptide de 10 acides aminés) dont les deux extrémités, N- et C-terminales sont modifiées :
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hormone_de_lib%C3%A9ration_des_gonadotrophines_hypophysaires</t>
+          <t>Hormone_de_libération_des_gonadotrophines_hypophysaires</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>GnRH en tant que neurohormone</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La GnRH est une neurohormone produite par des neurones spécialisés du noyau arqué de l'hypothalamus. À la puberté, la GnRH est libérée à l'extrémité des terminaisons nerveuses dans le système de circulation porte hypophysaire. Un des signaux qui semble activer la sécrétion de la GnRH par l'hypothalamus semble être la neurokinine B. Elle se fixe alors sur les récepteurs spécifiques à la GnRH de la membrane plasmique des cellules gonadotropes, pour activer des cascades de signalisation intracellulaire. La GnRH est alors dégradée en quelques minutes.
 </t>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hormone_de_lib%C3%A9ration_des_gonadotrophines_hypophysaires</t>
+          <t>Hormone_de_libération_des_gonadotrophines_hypophysaires</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Contrôle de la FSH et de la LH</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La GnRH stimule la synthèse et la libération des gonadotrophines FSH et LH au niveau de l'adénohypophyse, processus qui est contrôlé par la fréquence et l'amplitude des oscillations de GnRH, elles-mêmes contrôlées par la quantité d'hormones sexuelles dans le sang (testostérone pour l'homme, œstrogène et progestérone pour la femme). Ainsi, une seule hormone, la GnRH, contrôle un processus complexe permettant le développement d'un follicule ovarien, l'ovulation, et le maintien du corps lutéal (corps jaune) dans le cycle menstruel (cycle sexuel) chez la femme, mais contrôle aussi la spermatogénèse (production de spermatozoïdes dans les tubes séminifères des testicules) chez l'homme.
 Ces processus utilisent des rétro-contrôles positifs et négatifs (en fonction du taux de telle hormone dans le sang) pour réguler l'activité des pics de GnRH.
@@ -654,7 +676,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hormone_de_lib%C3%A9ration_des_gonadotrophines_hypophysaires</t>
+          <t>Hormone_de_libération_des_gonadotrophines_hypophysaires</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -672,7 +694,9 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'activité de la GnRH est très faible chez l'enfant. Elle apparait au moment de la puberté pour installer le développement des fonctions reproductives.
 Quoique synthétisée en continu, elle est sécrétée de façon pulsatile (avec une décharge toutes les soixante à quatre-vingt-dix minutes). Chez la femme, sa sécrétion varie aussi de manière cyclique, avec un pic qui entraînera l'ovulation. Lors d'une grossesse, la synthèse et la sécrétion de GnRH s'arrête, de même qu'en période d'allaitement (par un rétro-contrôle négatif de la prolactine). La dopamine diminue également l'activité de la GnRH.
@@ -688,7 +712,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hormone_de_lib%C3%A9ration_des_gonadotrophines_hypophysaires</t>
+          <t>Hormone_de_libération_des_gonadotrophines_hypophysaires</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -706,7 +730,9 @@
           <t>GnRH dans d'autres organes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a des sécrétions ectopiques de GnRH par d'autres tissus que l'hypothalamus au niveau du placenta et des gonades. Leurs rôles sont actuellement peu connus.
 </t>
@@ -719,7 +745,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hormone_de_lib%C3%A9ration_des_gonadotrophines_hypophysaires</t>
+          <t>Hormone_de_libération_des_gonadotrophines_hypophysaires</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -737,7 +763,9 @@
           <t>Agonistes et antagonistes</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La GnRH synthétique est actuellement synthétisable et commercialisée, mais sa demi-vie requiert l'utilisation de pompe à infusion pour des utilisations cliniques. Des analogues de la GnRH sont utilisés pour des traitements endocriniens qui visent à stimuler (agonistes) ou réprimer (antagonistes) les sécrétions d'hormones hypophysaires en cas de désordre endocrinien.
 Les principaux agonistes sont la leuproréline, goséréline et la triptoréline.
@@ -760,7 +788,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hormone_de_lib%C3%A9ration_des_gonadotrophines_hypophysaires</t>
+          <t>Hormone_de_libération_des_gonadotrophines_hypophysaires</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -778,9 +806,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En juillet 2022, la Food and Drug Administration (FDA) ajoute un avertissement concernant le risque de pseudotumeur cérébrale (hypertension intracrânienne idiopathique) à l'étiquetage des agonistes de l'hormone de libération des gonadotrophines (GnRH) qui sont approuvés pour le traitement de la puberté précoce centrale chez les patients pédiatriques. Le taux d'incidence de pseudotumeur cérébrale associée à l'utilisation d'agonistes de la GnRH chez les patients pédiatriques n'a pas pu être établi de manière fiable en raison du petit nombre de cas et des limites des données[4].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juillet 2022, la Food and Drug Administration (FDA) ajoute un avertissement concernant le risque de pseudotumeur cérébrale (hypertension intracrânienne idiopathique) à l'étiquetage des agonistes de l'hormone de libération des gonadotrophines (GnRH) qui sont approuvés pour le traitement de la puberté précoce centrale chez les patients pédiatriques. Le taux d'incidence de pseudotumeur cérébrale associée à l'utilisation d'agonistes de la GnRH chez les patients pédiatriques n'a pas pu être établi de manière fiable en raison du petit nombre de cas et des limites des données.
 </t>
         </is>
       </c>
